--- a/contrastive_vs_bce.xlsx
+++ b/contrastive_vs_bce.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>epoch</t>
   </si>
@@ -39,6 +40,12 @@
   </si>
   <si>
     <t>val_1-shot_acc_bce</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>val_1-shot_acc_class</t>
   </si>
 </sst>
 </file>
@@ -129,11 +136,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="hu-HU"/>
-              <a:t>Contrastive loss vs.</a:t>
+              <a:t>Siamese vs.</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="hu-HU" baseline="0"/>
-              <a:t> binary crossentropy</a:t>
+              <a:t> classifier</a:t>
             </a:r>
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
@@ -176,360 +183,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Munka1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>loss_contrastive</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Munka1!$A$2:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Munka1!$B$2:$B$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.31169105879999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25068075309999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25037653139999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25026035210000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25014329320000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25035571299999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25009196309999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.25013767279999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.2500251684</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.25002943649999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.25001646420000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.2500095705</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.234823429</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1721769655</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1491430238</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.13213468740000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.12569599970000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.1169559511</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.1127921081</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.10675201820000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.1067087878</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.10139348300000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.6642206539999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.7536028760000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.9297144300000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8.9064997130000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.2485460280000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8.5594481E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.4831288039999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8.7829254669999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8.467914084E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.9181933920000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.5498697590000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.3149023190000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7.9482808370000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.4658398749999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7.8717570350000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.5168845179999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.3629853699999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7.6751295380000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7.3508816029999993E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7.4467152630000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7.4127074900000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7.6715284879999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7.7986655419999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.3011077209999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7.5430942299999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.2458972560000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6.9052899350000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7.033379981E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-50DC-43EF-B9FF-F7FDEBCE8D49}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Munka1!$C$1</c:f>
@@ -879,360 +534,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Munka1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>loss_cross_bce</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Munka1!$A$2:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Munka1!$D$2:$D$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>0.74367283090000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.69505295600000006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.69352116470000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.69319854160000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.57017913549999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.43478053309999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.37264714970000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.34827235109999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.30967925019999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.29000530839999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.27355060530000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.26813915510000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.25009548009999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.24846550710000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.2489872209</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.23647058360000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.22920005539999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.2284098081</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.22966687250000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.2197369002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.2147180622</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.21243471559999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.20180819059999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.2136808687</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.2000060666</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.2061995452</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.20299243389999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.2030425689</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.20119113329999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.198946659</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.1946163199</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.1936144742</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.19556687170000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.1904616254</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.1798748386</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.18182043470000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.1716304605</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.1854121094</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.17671904159999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.1772892455</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.17839065700000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.17537849799999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.17106742580000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.17622915110000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.1713668548</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.1747689124</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.1728365201</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.17131749199999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.1677688625</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.16689246090000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-50DC-43EF-B9FF-F7FDEBCE8D49}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Munka1!$E$1</c:f>
@@ -1578,6 +881,351 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-50DC-43EF-B9FF-F7FDEBCE8D49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>val_1-shot_acc_class</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$G$2:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.89200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.91200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.89800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.90400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.92400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.93200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.91200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.92800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.91200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.91200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.90400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.93200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.90400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.90600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B32E-4E0F-B075-CA73CF806022}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2449,16 +2097,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2743,10 +2391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,7 +2409,7 @@
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2777,8 +2425,21 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>40</v>
+      </c>
+      <c r="J1">
+        <f>MAX(G:G)</f>
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2794,8 +2455,14 @@
       <c r="E2">
         <v>0.114</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>4.2645138310000004</v>
+      </c>
+      <c r="G2">
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2811,8 +2478,14 @@
       <c r="E3">
         <v>0.156</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1.7207417629999999</v>
+      </c>
+      <c r="G3">
+        <v>0.85399999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2828,8 +2501,14 @@
       <c r="E4">
         <v>0.20200000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1.082824988</v>
+      </c>
+      <c r="G4">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2845,8 +2524,14 @@
       <c r="E5">
         <v>0.23400000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0.8117118056</v>
+      </c>
+      <c r="G5">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2862,8 +2547,14 @@
       <c r="E6">
         <v>0.67400000000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>0.649479837</v>
+      </c>
+      <c r="G6">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2879,8 +2570,14 @@
       <c r="E7">
         <v>0.73399999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0.55809067270000001</v>
+      </c>
+      <c r="G7">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2896,8 +2593,14 @@
       <c r="E8">
         <v>0.76800000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>0.47585745270000002</v>
+      </c>
+      <c r="G8">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2913,8 +2616,14 @@
       <c r="E9">
         <v>0.80200000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>0.44181873399999999</v>
+      </c>
+      <c r="G9">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2930,8 +2639,14 @@
       <c r="E10">
         <v>0.84599999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>0.38644799270000002</v>
+      </c>
+      <c r="G10">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2947,8 +2662,14 @@
       <c r="E11">
         <v>0.83599999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>0.36033893550000001</v>
+      </c>
+      <c r="G11">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2964,8 +2685,14 @@
       <c r="E12">
         <v>0.86599999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>0.32353468790000001</v>
+      </c>
+      <c r="G12">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2981,8 +2708,14 @@
       <c r="E13">
         <v>0.85199999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>0.30914320750000002</v>
+      </c>
+      <c r="G13">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2998,8 +2731,14 @@
       <c r="E14">
         <v>0.89600000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>0.28411468629999997</v>
+      </c>
+      <c r="G14">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3015,8 +2754,14 @@
       <c r="E15">
         <v>0.86599999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>0.1406771262</v>
+      </c>
+      <c r="G15">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3032,8 +2777,14 @@
       <c r="E16">
         <v>0.86399999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>9.7720346789999996E-2</v>
+      </c>
+      <c r="G16">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3049,8 +2800,14 @@
       <c r="E17">
         <v>0.89600000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>9.3616859129999994E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3066,8 +2823,14 @@
       <c r="E18">
         <v>0.85599999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>8.9913411319999997E-2</v>
+      </c>
+      <c r="G18">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3083,8 +2846,14 @@
       <c r="E19">
         <v>0.88800000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>8.1374531769999994E-2</v>
+      </c>
+      <c r="G19">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3100,8 +2869,14 @@
       <c r="E20">
         <v>0.86599999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>7.6647464339999999E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3117,8 +2892,14 @@
       <c r="E21">
         <v>0.878</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>7.46665569E-2</v>
+      </c>
+      <c r="G21">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3134,8 +2915,14 @@
       <c r="E22">
         <v>0.86599999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>6.9346608879999994E-2</v>
+      </c>
+      <c r="G22">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3151,8 +2938,14 @@
       <c r="E23">
         <v>0.85199999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>6.1026145300000001E-2</v>
+      </c>
+      <c r="G23">
+        <v>0.89800000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3168,8 +2961,14 @@
       <c r="E24">
         <v>0.90200000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>7.0268809089999995E-2</v>
+      </c>
+      <c r="G24">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3185,8 +2984,14 @@
       <c r="E25">
         <v>0.88400000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>6.5649952080000004E-2</v>
+      </c>
+      <c r="G25">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3202,8 +3007,14 @@
       <c r="E26">
         <v>0.85399999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>6.4151537280000004E-2</v>
+      </c>
+      <c r="G26">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3219,8 +3030,14 @@
       <c r="E27">
         <v>0.85599999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>6.1359462830000003E-2</v>
+      </c>
+      <c r="G27">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3236,8 +3053,14 @@
       <c r="E28">
         <v>0.88400000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>5.9493911560000001E-2</v>
+      </c>
+      <c r="G28">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3253,8 +3076,14 @@
       <c r="E29">
         <v>0.85599999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>6.3416843969999998E-2</v>
+      </c>
+      <c r="G29">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3270,8 +3099,14 @@
       <c r="E30">
         <v>0.88800000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>6.2413964129999999E-2</v>
+      </c>
+      <c r="G30">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3287,8 +3122,14 @@
       <c r="E31">
         <v>0.88800000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>6.2470988790000001E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3304,8 +3145,14 @@
       <c r="E32">
         <v>0.878</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>6.3825673959999996E-2</v>
+      </c>
+      <c r="G32">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3321,8 +3168,14 @@
       <c r="E33">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>6.0759243859999999E-2</v>
+      </c>
+      <c r="G33">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3338,8 +3191,14 @@
       <c r="E34">
         <v>0.88400000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>6.5891621110000007E-2</v>
+      </c>
+      <c r="G34">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3355,8 +3214,14 @@
       <c r="E35">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>6.4102355099999994E-2</v>
+      </c>
+      <c r="G35">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3372,8 +3237,14 @@
       <c r="E36">
         <v>0.88800000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>6.0451516740000003E-2</v>
+      </c>
+      <c r="G36">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3389,8 +3260,14 @@
       <c r="E37">
         <v>0.90400000000000003</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>6.1475238170000002E-2</v>
+      </c>
+      <c r="G37">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3406,8 +3283,14 @@
       <c r="E38">
         <v>0.90400000000000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>6.2204848860000002E-2</v>
+      </c>
+      <c r="G38">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3423,8 +3306,14 @@
       <c r="E39">
         <v>0.88800000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>6.2390950590000001E-2</v>
+      </c>
+      <c r="G39">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3440,8 +3329,14 @@
       <c r="E40">
         <v>0.90800000000000003</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>6.4458799570000003E-2</v>
+      </c>
+      <c r="G40">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3457,8 +3352,14 @@
       <c r="E41">
         <v>0.89800000000000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>6.2130674580000003E-2</v>
+      </c>
+      <c r="G41">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3474,8 +3375,14 @@
       <c r="E42">
         <v>0.90400000000000003</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>6.2417575449999999E-2</v>
+      </c>
+      <c r="G42">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3491,8 +3398,14 @@
       <c r="E43">
         <v>0.89600000000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>6.0050641439999997E-2</v>
+      </c>
+      <c r="G43">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3508,8 +3421,14 @@
       <c r="E44">
         <v>0.89600000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>5.9651644130000001E-2</v>
+      </c>
+      <c r="G44">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3525,8 +3444,14 @@
       <c r="E45">
         <v>0.89200000000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>6.2935991529999999E-2</v>
+      </c>
+      <c r="G45">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3542,8 +3467,14 @@
       <c r="E46">
         <v>0.89600000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>5.7719929939999998E-2</v>
+      </c>
+      <c r="G46">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3559,8 +3490,14 @@
       <c r="E47">
         <v>0.92200000000000004</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>6.3477272010000002E-2</v>
+      </c>
+      <c r="G47">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3576,8 +3513,14 @@
       <c r="E48">
         <v>0.90600000000000003</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>6.2749267580000004E-2</v>
+      </c>
+      <c r="G48">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3593,8 +3536,14 @@
       <c r="E49">
         <v>0.92600000000000005</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>5.6268485610000002E-2</v>
+      </c>
+      <c r="G49">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3611,7 +3560,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
